--- a/biology/Botanique/Jardin_d'essais_botaniques_de_Rabat/Jardin_d'essais_botaniques_de_Rabat.xlsx
+++ b/biology/Botanique/Jardin_d'essais_botaniques_de_Rabat/Jardin_d'essais_botaniques_de_Rabat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_d%27essais_botaniques_de_Rabat</t>
+          <t>Jardin_d'essais_botaniques_de_Rabat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin d'essais botaniques de Rabat est un jardin botanique de dix-sept hectares situé dans le quartier de l'Agdal à Rabat, centré sur l'Avenue de la Victoire, avec une partie en amont donnant sur la rue Oqba et la Bibliothèque nationale, et une autre partie en aval limitée par l'Avenue Hassan II et qui abrite certains laboratoires de l'Institut national de la recherche agronomique du Maroc.
-Créé en 1914, C'est l'un des plus anciens jardins d'essai et d'acclimatation. Il y avait à l'origine plus de 250 variétés d'arbres fruitiers et d'ornement, provenant de différentes régions du monde[1]. Des travaux de réhabilitation ont été nécessaires avant sa réouverture au public en juin 2013[2].
+Créé en 1914, C'est l'un des plus anciens jardins d'essai et d'acclimatation. Il y avait à l'origine plus de 250 variétés d'arbres fruitiers et d'ornement, provenant de différentes régions du monde. Des travaux de réhabilitation ont été nécessaires avant sa réouverture au public en juin 2013.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_d%27essais_botaniques_de_Rabat</t>
+          <t>Jardin_d'essais_botaniques_de_Rabat</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,48 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin d'essai a été initié par Lyautey dès le début du Protectorat français au Maroc. Il fait appel à l'architecte paysagiste Jean Claude Nicolas Forestier qui en dessine les plans[3].
-Le Jardin d'essais au XXIe siècle
-Le jardin d'essais est fermé au public pour des travaux de réhabilitation entre 2006 et 2013. Il est inauguré par le roi du Maroc le 17 juin 2013, avec une vocation botanique et pédagogique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin d'essai a été initié par Lyautey dès le début du Protectorat français au Maroc. Il fait appel à l'architecte paysagiste Jean Claude Nicolas Forestier qui en dessine les plans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jardin_d'essais_botaniques_de_Rabat</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_d%27essais_botaniques_de_Rabat</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Le Jardin d'essais au XXIe siècle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin d'essais est fermé au public pour des travaux de réhabilitation entre 2006 et 2013. Il est inauguré par le roi du Maroc le 17 juin 2013, avec une vocation botanique et pédagogique.
 </t>
         </is>
       </c>
